--- a/ResultOfTheSessionUnitTestProject/ReportsUnitTest/Resources/GroupSessionResultReport.xlsx
+++ b/ResultOfTheSessionUnitTestProject/ReportsUnitTest/Resources/GroupSessionResultReport.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Dynamics of changes in the average assessment for each subject by year</t>
   </si>
@@ -30,6 +30,12 @@
   </si>
   <si>
     <t>Linear algebra and geometry</t>
+  </si>
+  <si>
+    <t>Economy</t>
+  </si>
+  <si>
+    <t/>
   </si>
   <si>
     <t>Discrete mathematics</t>
@@ -109,7 +115,7 @@
   <sheetPr>
     <tabColor rgb="FF000000"/>
   </sheetPr>
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -160,10 +166,21 @@
       <c r="A5" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="6">
+      <c r="B5" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="6">
         <v>6.5</v>
       </c>
-      <c r="C5" s="6">
+      <c r="C6" s="6">
         <v>7.25</v>
       </c>
     </row>

--- a/ResultOfTheSessionUnitTestProject/ReportsUnitTest/Resources/GroupSessionResultReport.xlsx
+++ b/ResultOfTheSessionUnitTestProject/ReportsUnitTest/Resources/GroupSessionResultReport.xlsx
@@ -29,7 +29,7 @@
     <t>2020</t>
   </si>
   <si>
-    <t>Linear algebra and geometry</t>
+    <t>Discrete mathematics</t>
   </si>
   <si>
     <t>Economy</t>
@@ -38,7 +38,7 @@
     <t/>
   </si>
   <si>
-    <t>Discrete mathematics</t>
+    <t>Linear algebra and geometry</t>
   </si>
 </sst>
 </file>
@@ -156,10 +156,10 @@
         <v>5</v>
       </c>
       <c r="B4" s="6">
-        <v>6.88</v>
+        <v>6.5</v>
       </c>
       <c r="C4" s="6">
-        <v>9</v>
+        <v>7.25</v>
       </c>
     </row>
     <row r="5">
@@ -178,10 +178,10 @@
         <v>8</v>
       </c>
       <c r="B6" s="6">
-        <v>6.5</v>
+        <v>6.88</v>
       </c>
       <c r="C6" s="6">
-        <v>7.25</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/ResultOfTheSessionUnitTestProject/ReportsUnitTest/Resources/GroupSessionResultReport.xlsx
+++ b/ResultOfTheSessionUnitTestProject/ReportsUnitTest/Resources/GroupSessionResultReport.xlsx
@@ -5,14 +5,40 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Assessment dynamics" sheetId="1" r:id="rId1"/>
+    <sheet name="2019" sheetId="1" r:id="rId1"/>
+    <sheet name="2020" sheetId="2" r:id="rId3"/>
+    <sheet name="Assessment dynamics" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+  <si>
+    <t>Winter examination and credit session</t>
+  </si>
+  <si>
+    <t>Group name</t>
+  </si>
+  <si>
+    <t>Max assessment</t>
+  </si>
+  <si>
+    <t>Min assessment</t>
+  </si>
+  <si>
+    <t>Average assessment</t>
+  </si>
+  <si>
+    <t>AC12</t>
+  </si>
+  <si>
+    <t>GR55</t>
+  </si>
+  <si>
+    <t>Summer examination and credit session</t>
+  </si>
   <si>
     <t>Dynamics of changes in the average assessment for each subject by year</t>
   </si>
@@ -29,6 +55,9 @@
     <t>2020</t>
   </si>
   <si>
+    <t>Linear algebra and geometry</t>
+  </si>
+  <si>
     <t>Discrete mathematics</t>
   </si>
   <si>
@@ -36,9 +65,6 @@
   </si>
   <si>
     <t/>
-  </si>
-  <si>
-    <t>Linear algebra and geometry</t>
   </si>
 </sst>
 </file>
@@ -92,13 +118,13 @@
     <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" borderId="1" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" borderId="1" applyBorder="1" xfId="0" applyProtection="1"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" borderId="1" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" borderId="1" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" borderId="1" applyBorder="1" xfId="0" applyProtection="1"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" borderId="1" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -111,6 +137,156 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="xr">
+  <sheetPr>
+    <tabColor rgb="FF000000"/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12" customHeight="1" defaultColWidth="20"/>
+  <cols>
+    <col min="1" max="1" width="20" customWidth="1"/>
+    <col min="2" max="2" width="20" customWidth="1"/>
+    <col min="3" max="3" width="20" customWidth="1"/>
+    <col min="4" max="4" width="20" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="20" customHeight="1" s="1" customFormat="1">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+    </row>
+    <row r="2" ht="20" customHeight="1" s="1" customFormat="1">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="3">
+        <v>10</v>
+      </c>
+      <c r="C3" s="3">
+        <v>4</v>
+      </c>
+      <c r="D3" s="3">
+        <v>7.9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3">
+        <v>9</v>
+      </c>
+      <c r="C4" s="3">
+        <v>4</v>
+      </c>
+      <c r="D4" s="3">
+        <v>6.9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells>
+    <mergeCell ref="A1:D1"/>
+  </mergeCells>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="xr">
+  <sheetPr>
+    <tabColor rgb="FF000000"/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12" customHeight="1" defaultColWidth="20"/>
+  <cols>
+    <col min="1" max="1" width="20" customWidth="1"/>
+    <col min="2" max="2" width="20" customWidth="1"/>
+    <col min="3" max="3" width="20" customWidth="1"/>
+    <col min="4" max="4" width="20" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="20" customHeight="1" s="1" customFormat="1">
+      <c r="A1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+    </row>
+    <row r="2" ht="20" customHeight="1" s="1" customFormat="1">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="3">
+        <v>10</v>
+      </c>
+      <c r="C3" s="3">
+        <v>4</v>
+      </c>
+      <c r="D3" s="3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3">
+        <v>10</v>
+      </c>
+      <c r="C4" s="3">
+        <v>4</v>
+      </c>
+      <c r="D4" s="3">
+        <v>7.1</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells>
+    <mergeCell ref="A1:D1"/>
+  </mergeCells>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="xr">
   <sheetPr>
     <tabColor rgb="FF000000"/>
@@ -128,60 +304,60 @@
   <sheetData>
     <row r="1" ht="20" customHeight="1" s="1" customFormat="1">
       <c r="A1" s="2" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
     </row>
     <row r="2">
-      <c r="A2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="4"/>
+      <c r="A2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="5"/>
     </row>
     <row r="3">
-      <c r="A3" s="3"/>
+      <c r="A3" s="4"/>
       <c r="B3" s="2" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="5" t="s">
-        <v>5</v>
+      <c r="A4" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="B4" s="6">
+        <v>6.88</v>
+      </c>
+      <c r="C4" s="6">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="6">
         <v>6.5</v>
       </c>
-      <c r="C4" s="6">
+      <c r="C5" s="6">
         <v>7.25</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="6">
+    <row r="6">
+      <c r="A6" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="6">
         <v>8</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="6">
-        <v>6.88</v>
-      </c>
-      <c r="C6" s="6">
-        <v>9</v>
       </c>
     </row>
   </sheetData>
